--- a/DesignDoc/API_Design_Hotel_Usecase.xlsx
+++ b/DesignDoc/API_Design_Hotel_Usecase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\SRG_others\Project\Hotel Guest Loyalty Reward System\Sutapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7C41AF4B-05A8-449E-9AB5-03E0E8667D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE406EA8-3C5D-480E-A897-E1BA50864153}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0562C389-6A2C-4E61-BE17-F137DB7BE057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE7A274-BC97-46B2-8B55-240270AE4B8C}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" firstSheet="1" xr2:uid="{0F2997E8-A61A-4443-88F7-9D5D4928EE80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0F2997E8-A61A-4443-88F7-9D5D4928EE80}"/>
   </bookViews>
   <sheets>
     <sheet name="API Design for LRS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>1. Create/Edit/Delete offer for loyalty program</t>
   </si>
@@ -597,6 +597,9 @@
         ],
         "wallet_info": {
           "ada_balance": "1200",
+          "rewards_earned":"800",
+         "rewards_spent:"300",
+          "rewards_balance":"500",
           "transactions": [
             {
               "transaction_id": "1",
@@ -747,14 +750,14 @@
 }</t>
   </si>
   <si>
-    <t>After successful login, the end user needs to create a wallet</t>
+    <t>After successful login, the end user needs to integrate existing wallet</t>
   </si>
   <si>
     <t>createEndUserWallet</t>
   </si>
   <si>
     <t>{
-  "loyalty_end_user_wallet_create_rq": {
+  "loyalty_end_user_wallet_integrate_rq": {
     "header": {
       "user_name": "endUser",
       "product": "lrs",
@@ -763,30 +766,21 @@
     "wallet_info": {
       "user_id": "1",
       "currency_type": "ada",
-      "wallet_name": "cardanoWallet"
+      "wallet_name": "cardanoWallet",
+     "wallet_address": "addr_test1vppvktxxw8eyhwkdf1jzq5xxqpxk8sj9d7pzvntfkng94ycn9mjxq",
     }
   }
 }</t>
   </si>
   <si>
     <t>{
-  "loyalty_end_user_wallet_create_import_rs": {
-    "wallet_info": {
-      "wallet_id": "1",
-      "user_id": "101",
-      "currency": "ada",
-      "wallet_name": "cardanoWallet",
-      "address": "addr_test1vppvktxxw8eyhwkdf1jzq5xxqpxk8sj9d7pzvntfkng94ycn9mjxq",
-      "data": "pioneer squeeze custom tree letter coral merge banner giant porch bundle theory"
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>The "data" will be shown only one time in response at the time of wallet creation; backend will not store it.</t>
-  </si>
-  <si>
-    <t>Insert Hotel master data in LRS</t>
+  "loyalty_end_user_wallet_integrate_rs": {
+     "status": "success"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Insert Hotel master data in lrs</t>
   </si>
   <si>
     <t>HBS</t>
@@ -885,7 +879,7 @@
 }</t>
   </si>
   <si>
-    <t>Once a guest completes a payment (or a set of guests at configurable schedule as per HBS) in the HBS, their booking information (name, email, total payment, currency) is sent to the LRS</t>
+    <t>Once a guest completes a payment (or a set of guests at configurable schedule as per HBS) in the HBS, their booking information (name, email, total payment, currency) is sent to the lrs</t>
   </si>
   <si>
     <t>getGuestInfoOnPaymentConfirmation</t>
@@ -1336,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E787C5C5-2E9B-47F4-A916-697E8A6E6982}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1690,7 +1684,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="216.75">
+    <row r="25" spans="1:6" ht="245.25">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -1706,9 +1700,7 @@
       <c r="E25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1719,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866003B6-B54B-4583-9AD1-D9DEC8A33BC4}">
   <dimension ref="A2:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1755,55 +1747,55 @@
     </row>
     <row r="3" spans="1:6" ht="231">
       <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="409.6">
       <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="361.5">
       <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F5" s="3"/>
     </row>
